--- a/report/so-lieu.xlsx
+++ b/report/so-lieu.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nam5\HK1\DANL\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F00AF0-09F0-47CE-A0BB-C5524E17D420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E36347-4A15-4E92-A3B2-1C4C596D9BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{5D4A976F-8591-453F-9F74-74B3133F9416}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{5D4A976F-8591-453F-9F74-74B3133F9416}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ket-qua" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>P (kW)</t>
   </si>
@@ -136,12 +137,17 @@
       <t>U</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">           Đầu phân 
+                    áp
+Độ sáng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,16 +212,37 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -238,11 +265,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,6 +436,33 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF8EC5D-A521-4397-8972-9EF947F4DB2A}">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1300,4 +1502,769 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AA96D2-8D5B-46B8-9E32-6F5443DED749}">
+  <dimension ref="B2:U14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:U14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="21" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:21" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="17">
+        <v>9</v>
+      </c>
+      <c r="D3" s="15">
+        <v>8</v>
+      </c>
+      <c r="E3" s="15">
+        <v>7</v>
+      </c>
+      <c r="F3" s="15">
+        <v>6</v>
+      </c>
+      <c r="G3" s="15">
+        <v>5</v>
+      </c>
+      <c r="H3" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3" s="15">
+        <v>3</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2</v>
+      </c>
+      <c r="K3" s="15">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0</v>
+      </c>
+      <c r="M3" s="15">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="15">
+        <v>-2</v>
+      </c>
+      <c r="O3" s="15">
+        <v>-3</v>
+      </c>
+      <c r="P3" s="15">
+        <v>-4</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>-5</v>
+      </c>
+      <c r="R3" s="15">
+        <v>-6</v>
+      </c>
+      <c r="S3" s="15">
+        <v>-7</v>
+      </c>
+      <c r="T3" s="15">
+        <v>-8</v>
+      </c>
+      <c r="U3" s="16">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="18">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" s="7">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0</v>
+      </c>
+      <c r="T9" s="7">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0</v>
+      </c>
+      <c r="T10" s="7">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1</v>
+      </c>
+      <c r="N11" s="8">
+        <v>1</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0</v>
+      </c>
+      <c r="T11" s="7">
+        <v>0</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0</v>
+      </c>
+      <c r="S13" s="7">
+        <v>0</v>
+      </c>
+      <c r="T13" s="7">
+        <v>0</v>
+      </c>
+      <c r="U13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1</v>
+      </c>
+      <c r="N14" s="11">
+        <v>1</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>0</v>
+      </c>
+      <c r="R14" s="10">
+        <v>0</v>
+      </c>
+      <c r="S14" s="10">
+        <v>0</v>
+      </c>
+      <c r="T14" s="10">
+        <v>0</v>
+      </c>
+      <c r="U14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/report/so-lieu.xlsx
+++ b/report/so-lieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nam5\HK1\DANL\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E36347-4A15-4E92-A3B2-1C4C596D9BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1566BB-EA99-4118-8C47-80F5B36FA310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{5D4A976F-8591-453F-9F74-74B3133F9416}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>P (kW)</t>
   </si>
@@ -142,12 +142,25 @@
                     áp
 Độ sáng</t>
   </si>
+  <si>
+    <t xml:space="preserve">                     Độ  
+                    sáng
+Nút (kV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Độ  
+                    sáng
+Nút (% sụt áp)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +240,33 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -242,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -413,11 +453,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,6 +652,57 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1506,16 +1746,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AA96D2-8D5B-46B8-9E32-6F5443DED749}">
-  <dimension ref="B2:U14"/>
+  <dimension ref="B2:AI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:U14"/>
+    <sheetView tabSelected="1" topLeftCell="O33" workbookViewId="0">
+      <selection activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="21" width="5.7109375" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" customWidth="1"/>
+    <col min="24" max="24" width="23.140625" customWidth="1"/>
+    <col min="25" max="35" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2263,6 +2506,1389 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="24:35" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X17" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y17" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AA17" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="AB17" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="AC17" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="AD17" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AE17" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="AF17" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="AG17" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="AH17" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="AI17" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X18" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="27">
+        <v>22.812111157196199</v>
+      </c>
+      <c r="Z18" s="28">
+        <v>22.812111157196199</v>
+      </c>
+      <c r="AA18" s="28">
+        <v>22.812111157196199</v>
+      </c>
+      <c r="AB18" s="28">
+        <v>22.812111157196199</v>
+      </c>
+      <c r="AC18" s="28">
+        <v>22.812111157196199</v>
+      </c>
+      <c r="AD18" s="28">
+        <v>22.812111157196199</v>
+      </c>
+      <c r="AE18" s="28">
+        <v>22.812111157196199</v>
+      </c>
+      <c r="AF18" s="28">
+        <v>22.812111157196199</v>
+      </c>
+      <c r="AG18" s="28">
+        <v>22.812111157196199</v>
+      </c>
+      <c r="AH18" s="28">
+        <v>22.812111157196199</v>
+      </c>
+      <c r="AI18" s="29">
+        <v>22.812111157196199</v>
+      </c>
+    </row>
+    <row r="19" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X19" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="30">
+        <v>22.2386075969582</v>
+      </c>
+      <c r="Z19" s="31">
+        <v>22.279693243882601</v>
+      </c>
+      <c r="AA19" s="31">
+        <v>22.3204558544885</v>
+      </c>
+      <c r="AB19" s="31">
+        <v>22.360805232341701</v>
+      </c>
+      <c r="AC19" s="31">
+        <v>22.4006155813417</v>
+      </c>
+      <c r="AD19" s="31">
+        <v>22.4397071653806</v>
+      </c>
+      <c r="AE19" s="31">
+        <v>22.477816576604798</v>
+      </c>
+      <c r="AF19" s="31">
+        <v>22.514548185149199</v>
+      </c>
+      <c r="AG19" s="31">
+        <v>22.549296458525699</v>
+      </c>
+      <c r="AH19" s="31">
+        <v>22.5811321126058</v>
+      </c>
+      <c r="AI19" s="32">
+        <v>22.608675545481798</v>
+      </c>
+    </row>
+    <row r="20" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X20" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="30">
+        <v>22.488160357099801</v>
+      </c>
+      <c r="Z20" s="31">
+        <v>22.511035028047701</v>
+      </c>
+      <c r="AA20" s="31">
+        <v>22.533742332975201</v>
+      </c>
+      <c r="AB20" s="31">
+        <v>22.5562369945856</v>
+      </c>
+      <c r="AC20" s="31">
+        <v>22.5784564428624</v>
+      </c>
+      <c r="AD20" s="31">
+        <v>22.600312163912701</v>
+      </c>
+      <c r="AE20" s="31">
+        <v>22.6216757480152</v>
+      </c>
+      <c r="AF20" s="31">
+        <v>22.642356033501599</v>
+      </c>
+      <c r="AG20" s="31">
+        <v>22.6620616943489</v>
+      </c>
+      <c r="AH20" s="31">
+        <v>22.680342489555599</v>
+      </c>
+      <c r="AI20" s="32">
+        <v>22.696509619390099</v>
+      </c>
+    </row>
+    <row r="21" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X21" s="21">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="30">
+        <v>22.2303754686451</v>
+      </c>
+      <c r="Z21" s="31">
+        <v>22.271465176059099</v>
+      </c>
+      <c r="AA21" s="31">
+        <v>22.3122528036955</v>
+      </c>
+      <c r="AB21" s="31">
+        <v>22.352656464973599</v>
+      </c>
+      <c r="AC21" s="31">
+        <v>22.392562923107398</v>
+      </c>
+      <c r="AD21" s="31">
+        <v>22.431811867598402</v>
+      </c>
+      <c r="AE21" s="31">
+        <v>22.470170538000001</v>
+      </c>
+      <c r="AF21" s="31">
+        <v>22.507292139984099</v>
+      </c>
+      <c r="AG21" s="31">
+        <v>22.5426478364658</v>
+      </c>
+      <c r="AH21" s="31">
+        <v>22.575420365977301</v>
+      </c>
+      <c r="AI21" s="32">
+        <v>22.604361681752899</v>
+      </c>
+    </row>
+    <row r="22" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X22" s="21">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="30">
+        <v>21.4030044301213</v>
+      </c>
+      <c r="Z22" s="31">
+        <v>21.5036372300636</v>
+      </c>
+      <c r="AA22" s="31">
+        <v>21.6035028581415</v>
+      </c>
+      <c r="AB22" s="31">
+        <v>21.702388223861899</v>
+      </c>
+      <c r="AC22" s="31">
+        <v>21.799996530237099</v>
+      </c>
+      <c r="AD22" s="31">
+        <v>21.895904291550199</v>
+      </c>
+      <c r="AE22" s="31">
+        <v>21.989491637561901</v>
+      </c>
+      <c r="AF22" s="31">
+        <v>22.079828255305902</v>
+      </c>
+      <c r="AG22" s="31">
+        <v>22.165489691850599</v>
+      </c>
+      <c r="AH22" s="31">
+        <v>22.244283365199799</v>
+      </c>
+      <c r="AI22" s="32">
+        <v>22.312927096587401</v>
+      </c>
+    </row>
+    <row r="23" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X23" s="21">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="30">
+        <v>21.729858482633698</v>
+      </c>
+      <c r="Z23" s="31">
+        <v>21.8074324808737</v>
+      </c>
+      <c r="AA23" s="31">
+        <v>21.8843982023247</v>
+      </c>
+      <c r="AB23" s="31">
+        <v>21.960585375110799</v>
+      </c>
+      <c r="AC23" s="31">
+        <v>22.035756315487699</v>
+      </c>
+      <c r="AD23" s="31">
+        <v>22.109571081742502</v>
+      </c>
+      <c r="AE23" s="31">
+        <v>22.181530919425601</v>
+      </c>
+      <c r="AF23" s="31">
+        <v>22.2508858325982</v>
+      </c>
+      <c r="AG23" s="31">
+        <v>22.316486714303799</v>
+      </c>
+      <c r="AH23" s="31">
+        <v>22.3765692397048</v>
+      </c>
+      <c r="AI23" s="32">
+        <v>22.428516585330499</v>
+      </c>
+    </row>
+    <row r="24" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X24" s="21">
+        <v>7</v>
+      </c>
+      <c r="Y24" s="30">
+        <v>21.6175397463604</v>
+      </c>
+      <c r="Z24" s="31">
+        <v>21.704069240241299</v>
+      </c>
+      <c r="AA24" s="31">
+        <v>21.7898903078313</v>
+      </c>
+      <c r="AB24" s="31">
+        <v>21.874801636159301</v>
+      </c>
+      <c r="AC24" s="31">
+        <v>21.958521045807299</v>
+      </c>
+      <c r="AD24" s="31">
+        <v>22.040643167761701</v>
+      </c>
+      <c r="AE24" s="31">
+        <v>22.1205705761875</v>
+      </c>
+      <c r="AF24" s="31">
+        <v>22.197401254288899</v>
+      </c>
+      <c r="AG24" s="31">
+        <v>22.269749774358601</v>
+      </c>
+      <c r="AH24" s="31">
+        <v>22.335492282277801</v>
+      </c>
+      <c r="AI24" s="32">
+        <v>22.391511331074501</v>
+      </c>
+    </row>
+    <row r="25" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X25" s="21">
+        <v>8</v>
+      </c>
+      <c r="Y25" s="30">
+        <v>21.143796698153398</v>
+      </c>
+      <c r="Z25" s="31">
+        <v>21.262739252588698</v>
+      </c>
+      <c r="AA25" s="31">
+        <v>21.3807847760588</v>
+      </c>
+      <c r="AB25" s="31">
+        <v>21.497685045924602</v>
+      </c>
+      <c r="AC25" s="31">
+        <v>21.6130947132053</v>
+      </c>
+      <c r="AD25" s="31">
+        <v>21.726521600749901</v>
+      </c>
+      <c r="AE25" s="31">
+        <v>21.837246153985099</v>
+      </c>
+      <c r="AF25" s="31">
+        <v>21.9441895406142</v>
+      </c>
+      <c r="AG25" s="31">
+        <v>22.045700517711701</v>
+      </c>
+      <c r="AH25" s="31">
+        <v>22.139234382726801</v>
+      </c>
+      <c r="AI25" s="32">
+        <v>22.220964950085499</v>
+      </c>
+    </row>
+    <row r="26" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X26" s="21">
+        <v>9</v>
+      </c>
+      <c r="Y26" s="30">
+        <v>22.032053746871298</v>
+      </c>
+      <c r="Z26" s="31">
+        <v>22.086771581241599</v>
+      </c>
+      <c r="AA26" s="31">
+        <v>22.141096271112499</v>
+      </c>
+      <c r="AB26" s="31">
+        <v>22.194922298988899</v>
+      </c>
+      <c r="AC26" s="31">
+        <v>22.248104160564601</v>
+      </c>
+      <c r="AD26" s="31">
+        <v>22.300436504935401</v>
+      </c>
+      <c r="AE26" s="31">
+        <v>22.351622176105099</v>
+      </c>
+      <c r="AF26" s="31">
+        <v>22.401219943957699</v>
+      </c>
+      <c r="AG26" s="31">
+        <v>22.448558961402501</v>
+      </c>
+      <c r="AH26" s="31">
+        <v>22.4926039550596</v>
+      </c>
+      <c r="AI26" s="32">
+        <v>22.5317698647853</v>
+      </c>
+    </row>
+    <row r="27" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X27" s="21">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="30">
+        <v>21.967591049058001</v>
+      </c>
+      <c r="Z27" s="31">
+        <v>22.0269943539077</v>
+      </c>
+      <c r="AA27" s="31">
+        <v>22.085969116328901</v>
+      </c>
+      <c r="AB27" s="31">
+        <v>22.144400043795802</v>
+      </c>
+      <c r="AC27" s="31">
+        <v>22.202128056624499</v>
+      </c>
+      <c r="AD27" s="31">
+        <v>22.258928496242198</v>
+      </c>
+      <c r="AE27" s="31">
+        <v>22.3144760292485</v>
+      </c>
+      <c r="AF27" s="31">
+        <v>22.368287187386802</v>
+      </c>
+      <c r="AG27" s="31">
+        <v>22.419626186338899</v>
+      </c>
+      <c r="AH27" s="31">
+        <v>22.467356117947201</v>
+      </c>
+      <c r="AI27" s="32">
+        <v>22.5097333071304</v>
+      </c>
+    </row>
+    <row r="28" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X28" s="21">
+        <v>11</v>
+      </c>
+      <c r="Y28" s="30">
+        <v>21.5597711713385</v>
+      </c>
+      <c r="Z28" s="31">
+        <v>21.6508776934491</v>
+      </c>
+      <c r="AA28" s="31">
+        <v>21.741228776965301</v>
+      </c>
+      <c r="AB28" s="31">
+        <v>21.8306086495176</v>
+      </c>
+      <c r="AC28" s="31">
+        <v>21.918714424543801</v>
+      </c>
+      <c r="AD28" s="31">
+        <v>22.0051102862218</v>
+      </c>
+      <c r="AE28" s="31">
+        <v>22.089152813844599</v>
+      </c>
+      <c r="AF28" s="31">
+        <v>22.169868774256202</v>
+      </c>
+      <c r="AG28" s="31">
+        <v>22.2457608046251</v>
+      </c>
+      <c r="AH28" s="31">
+        <v>22.314530998276101</v>
+      </c>
+      <c r="AI28" s="32">
+        <v>22.372809680582399</v>
+      </c>
+    </row>
+    <row r="29" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X29" s="21">
+        <v>12</v>
+      </c>
+      <c r="Y29" s="30">
+        <v>21.080938537511901</v>
+      </c>
+      <c r="Z29" s="31">
+        <v>21.204551109999102</v>
+      </c>
+      <c r="AA29" s="31">
+        <v>21.3272275141303</v>
+      </c>
+      <c r="AB29" s="31">
+        <v>21.448708424348698</v>
+      </c>
+      <c r="AC29" s="31">
+        <v>21.568632961045299</v>
+      </c>
+      <c r="AD29" s="31">
+        <v>21.686486689263301</v>
+      </c>
+      <c r="AE29" s="31">
+        <v>21.801517318868399</v>
+      </c>
+      <c r="AF29" s="31">
+        <v>21.9125965988659</v>
+      </c>
+      <c r="AG29" s="31">
+        <v>22.017996960787201</v>
+      </c>
+      <c r="AH29" s="31">
+        <v>22.1150544540114</v>
+      </c>
+      <c r="AI29" s="32">
+        <v>22.1997597708231</v>
+      </c>
+    </row>
+    <row r="30" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X30" s="21">
+        <v>13</v>
+      </c>
+      <c r="Y30" s="30">
+        <v>21.010256468519401</v>
+      </c>
+      <c r="Z30" s="31">
+        <v>21.138164819849202</v>
+      </c>
+      <c r="AA30" s="31">
+        <v>21.265123912445699</v>
+      </c>
+      <c r="AB30" s="31">
+        <v>21.3908724395733</v>
+      </c>
+      <c r="AC30" s="31">
+        <v>21.515047355502102</v>
+      </c>
+      <c r="AD30" s="31">
+        <v>21.6371320393941</v>
+      </c>
+      <c r="AE30" s="31">
+        <v>21.756372382841899</v>
+      </c>
+      <c r="AF30" s="31">
+        <v>21.871639465995099</v>
+      </c>
+      <c r="AG30" s="31">
+        <v>21.981207510212599</v>
+      </c>
+      <c r="AH30" s="31">
+        <v>22.082418062645701</v>
+      </c>
+      <c r="AI30" s="32">
+        <v>22.171268008301102</v>
+      </c>
+    </row>
+    <row r="31" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X31" s="21">
+        <v>14</v>
+      </c>
+      <c r="Y31" s="30">
+        <v>21.9644074263269</v>
+      </c>
+      <c r="Z31" s="31">
+        <v>22.023609333005801</v>
+      </c>
+      <c r="AA31" s="31">
+        <v>22.082392557890898</v>
+      </c>
+      <c r="AB31" s="31">
+        <v>22.1406452899095</v>
+      </c>
+      <c r="AC31" s="31">
+        <v>22.198213551147699</v>
+      </c>
+      <c r="AD31" s="31">
+        <v>22.254880346996401</v>
+      </c>
+      <c r="AE31" s="31">
+        <v>22.310332158314498</v>
+      </c>
+      <c r="AF31" s="31">
+        <v>22.364104192087201</v>
+      </c>
+      <c r="AG31" s="31">
+        <v>22.415490790460101</v>
+      </c>
+      <c r="AH31" s="31">
+        <v>22.463403950833001</v>
+      </c>
+      <c r="AI31" s="32">
+        <v>22.506177131657001</v>
+      </c>
+    </row>
+    <row r="32" spans="24:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X32" s="22">
+        <v>15</v>
+      </c>
+      <c r="Y32" s="33">
+        <v>20.942610147975</v>
+      </c>
+      <c r="Z32" s="34">
+        <v>21.0750025716134</v>
+      </c>
+      <c r="AA32" s="34">
+        <v>21.206420199224102</v>
+      </c>
+      <c r="AB32" s="34">
+        <v>21.336595430493901</v>
+      </c>
+      <c r="AC32" s="34">
+        <v>21.465156746085199</v>
+      </c>
+      <c r="AD32" s="34">
+        <v>21.591575881455</v>
+      </c>
+      <c r="AE32" s="34">
+        <v>21.715082365051401</v>
+      </c>
+      <c r="AF32" s="34">
+        <v>21.834523714124501</v>
+      </c>
+      <c r="AG32" s="34">
+        <v>21.948139339270199</v>
+      </c>
+      <c r="AH32" s="34">
+        <v>22.053218058419102</v>
+      </c>
+      <c r="AI32" s="35">
+        <v>22.1456752751727</v>
+      </c>
+    </row>
+    <row r="35" spans="24:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="24:35" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X36" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y36" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AA36" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="AB36" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="AC36" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="AD36" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AE36" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="AF36" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="AG36" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="AH36" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="AI36" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X37" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="36">
+        <f>ABS(Y18-22)/22*100</f>
+        <v>3.6914143508918134</v>
+      </c>
+      <c r="Z37" s="36">
+        <f t="shared" ref="Z37:AI37" si="0">ABS(Z18-22)/22*100</f>
+        <v>3.6914143508918134</v>
+      </c>
+      <c r="AA37" s="36">
+        <f t="shared" si="0"/>
+        <v>3.6914143508918134</v>
+      </c>
+      <c r="AB37" s="36">
+        <f t="shared" si="0"/>
+        <v>3.6914143508918134</v>
+      </c>
+      <c r="AC37" s="36">
+        <f t="shared" si="0"/>
+        <v>3.6914143508918134</v>
+      </c>
+      <c r="AD37" s="36">
+        <f t="shared" si="0"/>
+        <v>3.6914143508918134</v>
+      </c>
+      <c r="AE37" s="36">
+        <f t="shared" si="0"/>
+        <v>3.6914143508918134</v>
+      </c>
+      <c r="AF37" s="36">
+        <f t="shared" si="0"/>
+        <v>3.6914143508918134</v>
+      </c>
+      <c r="AG37" s="36">
+        <f t="shared" si="0"/>
+        <v>3.6914143508918134</v>
+      </c>
+      <c r="AH37" s="36">
+        <f t="shared" si="0"/>
+        <v>3.6914143508918134</v>
+      </c>
+      <c r="AI37" s="36">
+        <f t="shared" si="0"/>
+        <v>3.6914143508918134</v>
+      </c>
+    </row>
+    <row r="38" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X38" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="36">
+        <f t="shared" ref="Y38:AI51" si="1">ABS(Y19-22)/22*100</f>
+        <v>1.0845799861736374</v>
+      </c>
+      <c r="Z38" s="36">
+        <f t="shared" si="1"/>
+        <v>1.2713329267390965</v>
+      </c>
+      <c r="AA38" s="36">
+        <f t="shared" si="1"/>
+        <v>1.4566175204022742</v>
+      </c>
+      <c r="AB38" s="36">
+        <f t="shared" si="1"/>
+        <v>1.6400237833713662</v>
+      </c>
+      <c r="AC38" s="36">
+        <f t="shared" si="1"/>
+        <v>1.8209799151895467</v>
+      </c>
+      <c r="AD38" s="36">
+        <f t="shared" si="1"/>
+        <v>1.9986689335481824</v>
+      </c>
+      <c r="AE38" s="36">
+        <f t="shared" si="1"/>
+        <v>2.1718935300218107</v>
+      </c>
+      <c r="AF38" s="36">
+        <f t="shared" si="1"/>
+        <v>2.3388553870418121</v>
+      </c>
+      <c r="AG38" s="36">
+        <f t="shared" si="1"/>
+        <v>2.4968020842077236</v>
+      </c>
+      <c r="AH38" s="36">
+        <f t="shared" si="1"/>
+        <v>2.6415096027536387</v>
+      </c>
+      <c r="AI38" s="36">
+        <f t="shared" si="1"/>
+        <v>2.7667070249172645</v>
+      </c>
+    </row>
+    <row r="39" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X39" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y39" s="36">
+        <f t="shared" si="1"/>
+        <v>2.2189107140900046</v>
+      </c>
+      <c r="Z39" s="36">
+        <f t="shared" si="1"/>
+        <v>2.3228864911259124</v>
+      </c>
+      <c r="AA39" s="36">
+        <f t="shared" si="1"/>
+        <v>2.4261015135236428</v>
+      </c>
+      <c r="AB39" s="36">
+        <f t="shared" si="1"/>
+        <v>2.5283499753890903</v>
+      </c>
+      <c r="AC39" s="36">
+        <f t="shared" si="1"/>
+        <v>2.6293474675563644</v>
+      </c>
+      <c r="AD39" s="36">
+        <f t="shared" si="1"/>
+        <v>2.7286916541486406</v>
+      </c>
+      <c r="AE39" s="36">
+        <f t="shared" si="1"/>
+        <v>2.8257988546145443</v>
+      </c>
+      <c r="AF39" s="36">
+        <f t="shared" si="1"/>
+        <v>2.9198001522799966</v>
+      </c>
+      <c r="AG39" s="36">
+        <f t="shared" si="1"/>
+        <v>3.0093713379495441</v>
+      </c>
+      <c r="AH39" s="36">
+        <f t="shared" si="1"/>
+        <v>3.0924658616163598</v>
+      </c>
+      <c r="AI39" s="36">
+        <f t="shared" si="1"/>
+        <v>3.1659528154095411</v>
+      </c>
+    </row>
+    <row r="40" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X40" s="21">
+        <v>4</v>
+      </c>
+      <c r="Y40" s="36">
+        <f t="shared" si="1"/>
+        <v>1.0471612211140913</v>
+      </c>
+      <c r="Z40" s="36">
+        <f t="shared" si="1"/>
+        <v>1.2339326184504495</v>
+      </c>
+      <c r="AA40" s="36">
+        <f t="shared" si="1"/>
+        <v>1.419330925888638</v>
+      </c>
+      <c r="AB40" s="36">
+        <f t="shared" si="1"/>
+        <v>1.6029839316981764</v>
+      </c>
+      <c r="AC40" s="36">
+        <f t="shared" si="1"/>
+        <v>1.7843769232154472</v>
+      </c>
+      <c r="AD40" s="36">
+        <f t="shared" si="1"/>
+        <v>1.9627812163563716</v>
+      </c>
+      <c r="AE40" s="36">
+        <f t="shared" si="1"/>
+        <v>2.1371388090909158</v>
+      </c>
+      <c r="AF40" s="36">
+        <f t="shared" si="1"/>
+        <v>2.3058733635640847</v>
+      </c>
+      <c r="AG40" s="36">
+        <f t="shared" si="1"/>
+        <v>2.4665810748445467</v>
+      </c>
+      <c r="AH40" s="36">
+        <f t="shared" si="1"/>
+        <v>2.6155471180786418</v>
+      </c>
+      <c r="AI40" s="36">
+        <f t="shared" si="1"/>
+        <v>2.7470985534222661</v>
+      </c>
+    </row>
+    <row r="41" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X41" s="21">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="36">
+        <f t="shared" si="1"/>
+        <v>2.7136162267213657</v>
+      </c>
+      <c r="Z41" s="36">
+        <f t="shared" si="1"/>
+        <v>2.2561944088018202</v>
+      </c>
+      <c r="AA41" s="36">
+        <f t="shared" si="1"/>
+        <v>1.8022597357204553</v>
+      </c>
+      <c r="AB41" s="36">
+        <f t="shared" si="1"/>
+        <v>1.3527808006277326</v>
+      </c>
+      <c r="AC41" s="36">
+        <f t="shared" si="1"/>
+        <v>0.90910668074045986</v>
+      </c>
+      <c r="AD41" s="36">
+        <f t="shared" si="1"/>
+        <v>0.47316231113545953</v>
+      </c>
+      <c r="AE41" s="36">
+        <f t="shared" si="1"/>
+        <v>4.7765283809540128E-2</v>
+      </c>
+      <c r="AF41" s="36">
+        <f t="shared" si="1"/>
+        <v>0.36285570593591709</v>
+      </c>
+      <c r="AG41" s="36">
+        <f t="shared" si="1"/>
+        <v>0.75222587204817748</v>
+      </c>
+      <c r="AH41" s="36">
+        <f t="shared" si="1"/>
+        <v>1.1103789327263576</v>
+      </c>
+      <c r="AI41" s="36">
+        <f t="shared" si="1"/>
+        <v>1.422395893579097</v>
+      </c>
+    </row>
+    <row r="42" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X42" s="21">
+        <v>6</v>
+      </c>
+      <c r="Y42" s="36">
+        <f t="shared" si="1"/>
+        <v>1.2279159880286434</v>
+      </c>
+      <c r="Z42" s="36">
+        <f t="shared" si="1"/>
+        <v>0.8753069051195439</v>
+      </c>
+      <c r="AA42" s="36">
+        <f t="shared" si="1"/>
+        <v>0.52546271670590861</v>
+      </c>
+      <c r="AB42" s="36">
+        <f t="shared" si="1"/>
+        <v>0.17915738586000304</v>
+      </c>
+      <c r="AC42" s="36">
+        <f t="shared" si="1"/>
+        <v>0.16252870676226908</v>
+      </c>
+      <c r="AD42" s="36">
+        <f t="shared" si="1"/>
+        <v>0.49805037155682513</v>
+      </c>
+      <c r="AE42" s="36">
+        <f t="shared" si="1"/>
+        <v>0.8251405428436408</v>
+      </c>
+      <c r="AF42" s="36">
+        <f t="shared" si="1"/>
+        <v>1.1403901481736383</v>
+      </c>
+      <c r="AG42" s="36">
+        <f t="shared" si="1"/>
+        <v>1.4385759741081794</v>
+      </c>
+      <c r="AH42" s="36">
+        <f t="shared" si="1"/>
+        <v>1.7116783622945453</v>
+      </c>
+      <c r="AI42" s="36">
+        <f t="shared" si="1"/>
+        <v>1.9478026605931766</v>
+      </c>
+    </row>
+    <row r="43" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X43" s="21">
+        <v>7</v>
+      </c>
+      <c r="Y43" s="36">
+        <f t="shared" si="1"/>
+        <v>1.7384556983618182</v>
+      </c>
+      <c r="Z43" s="36">
+        <f t="shared" si="1"/>
+        <v>1.3451398170850031</v>
+      </c>
+      <c r="AA43" s="36">
+        <f t="shared" si="1"/>
+        <v>0.95504405531227377</v>
+      </c>
+      <c r="AB43" s="36">
+        <f t="shared" si="1"/>
+        <v>0.56908347200317755</v>
+      </c>
+      <c r="AC43" s="36">
+        <f t="shared" si="1"/>
+        <v>0.18854070087591554</v>
+      </c>
+      <c r="AD43" s="36">
+        <f t="shared" si="1"/>
+        <v>0.18474167164409425</v>
+      </c>
+      <c r="AE43" s="36">
+        <f t="shared" si="1"/>
+        <v>0.54804807357954644</v>
+      </c>
+      <c r="AF43" s="36">
+        <f t="shared" si="1"/>
+        <v>0.89727842858590245</v>
+      </c>
+      <c r="AG43" s="36">
+        <f t="shared" si="1"/>
+        <v>1.2261353379936419</v>
+      </c>
+      <c r="AH43" s="36">
+        <f t="shared" si="1"/>
+        <v>1.524964919444552</v>
+      </c>
+      <c r="AI43" s="36">
+        <f t="shared" si="1"/>
+        <v>1.7795969594295482</v>
+      </c>
+    </row>
+    <row r="44" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X44" s="21">
+        <v>8</v>
+      </c>
+      <c r="Y44" s="36">
+        <f t="shared" si="1"/>
+        <v>3.8918331902118264</v>
+      </c>
+      <c r="Z44" s="36">
+        <f t="shared" si="1"/>
+        <v>3.3511852155059167</v>
+      </c>
+      <c r="AA44" s="36">
+        <f t="shared" si="1"/>
+        <v>2.8146146542781834</v>
+      </c>
+      <c r="AB44" s="36">
+        <f t="shared" si="1"/>
+        <v>2.2832497912518108</v>
+      </c>
+      <c r="AC44" s="36">
+        <f t="shared" si="1"/>
+        <v>1.7586603945213659</v>
+      </c>
+      <c r="AD44" s="36">
+        <f t="shared" si="1"/>
+        <v>1.2430836329549939</v>
+      </c>
+      <c r="AE44" s="36">
+        <f t="shared" si="1"/>
+        <v>0.73979020915864169</v>
+      </c>
+      <c r="AF44" s="36">
+        <f t="shared" si="1"/>
+        <v>0.25368390629908982</v>
+      </c>
+      <c r="AG44" s="36">
+        <f t="shared" si="1"/>
+        <v>0.20772962596227793</v>
+      </c>
+      <c r="AH44" s="36">
+        <f t="shared" si="1"/>
+        <v>0.63288355784909744</v>
+      </c>
+      <c r="AI44" s="36">
+        <f t="shared" si="1"/>
+        <v>1.0043861367522666</v>
+      </c>
+    </row>
+    <row r="45" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X45" s="21">
+        <v>9</v>
+      </c>
+      <c r="Y45" s="36">
+        <f t="shared" si="1"/>
+        <v>0.14569884941499306</v>
+      </c>
+      <c r="Z45" s="36">
+        <f t="shared" si="1"/>
+        <v>0.39441627837090659</v>
+      </c>
+      <c r="AA45" s="36">
+        <f t="shared" si="1"/>
+        <v>0.64134668687499452</v>
+      </c>
+      <c r="AB45" s="36">
+        <f t="shared" si="1"/>
+        <v>0.88601044994954303</v>
+      </c>
+      <c r="AC45" s="36">
+        <f t="shared" si="1"/>
+        <v>1.1277461843845511</v>
+      </c>
+      <c r="AD45" s="36">
+        <f t="shared" si="1"/>
+        <v>1.3656204769790974</v>
+      </c>
+      <c r="AE45" s="36">
+        <f t="shared" si="1"/>
+        <v>1.5982826186595422</v>
+      </c>
+      <c r="AF45" s="36">
+        <f t="shared" si="1"/>
+        <v>1.8237270179895404</v>
+      </c>
+      <c r="AG45" s="36">
+        <f t="shared" si="1"/>
+        <v>2.0389043700113683</v>
+      </c>
+      <c r="AH45" s="36">
+        <f t="shared" si="1"/>
+        <v>2.2391088866345465</v>
+      </c>
+      <c r="AI45" s="36">
+        <f t="shared" si="1"/>
+        <v>2.4171357490240908</v>
+      </c>
+    </row>
+    <row r="46" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X46" s="21">
+        <v>10</v>
+      </c>
+      <c r="Y46" s="36">
+        <f t="shared" si="1"/>
+        <v>0.14731341337272336</v>
+      </c>
+      <c r="Z46" s="36">
+        <f t="shared" si="1"/>
+        <v>0.12270160867136261</v>
+      </c>
+      <c r="AA46" s="36">
+        <f t="shared" si="1"/>
+        <v>0.39076871058591228</v>
+      </c>
+      <c r="AB46" s="36">
+        <f t="shared" si="1"/>
+        <v>0.65636383543546251</v>
+      </c>
+      <c r="AC46" s="36">
+        <f t="shared" si="1"/>
+        <v>0.9187638937477226</v>
+      </c>
+      <c r="AD46" s="36">
+        <f t="shared" si="1"/>
+        <v>1.1769477101918113</v>
+      </c>
+      <c r="AE46" s="36">
+        <f t="shared" si="1"/>
+        <v>1.4294364965840891</v>
+      </c>
+      <c r="AF46" s="36">
+        <f t="shared" si="1"/>
+        <v>1.6740326699400077</v>
+      </c>
+      <c r="AG46" s="36">
+        <f t="shared" si="1"/>
+        <v>1.9073917560859046</v>
+      </c>
+      <c r="AH46" s="36">
+        <f t="shared" si="1"/>
+        <v>2.1243459906690956</v>
+      </c>
+      <c r="AI46" s="36">
+        <f t="shared" si="1"/>
+        <v>2.3169695778654544</v>
+      </c>
+    </row>
+    <row r="47" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X47" s="21">
+        <v>11</v>
+      </c>
+      <c r="Y47" s="36">
+        <f t="shared" si="1"/>
+        <v>2.0010401302795442</v>
+      </c>
+      <c r="Z47" s="36">
+        <f t="shared" si="1"/>
+        <v>1.5869195752313623</v>
+      </c>
+      <c r="AA47" s="36">
+        <f t="shared" si="1"/>
+        <v>1.1762328319759068</v>
+      </c>
+      <c r="AB47" s="36">
+        <f t="shared" si="1"/>
+        <v>0.76996068401090734</v>
+      </c>
+      <c r="AC47" s="36">
+        <f t="shared" si="1"/>
+        <v>0.36947988843727003</v>
+      </c>
+      <c r="AD47" s="36">
+        <f t="shared" si="1"/>
+        <v>2.3228573735455494E-2</v>
+      </c>
+      <c r="AE47" s="36">
+        <f t="shared" si="1"/>
+        <v>0.4052400629299962</v>
+      </c>
+      <c r="AF47" s="36">
+        <f t="shared" si="1"/>
+        <v>0.77213079207364321</v>
+      </c>
+      <c r="AG47" s="36">
+        <f t="shared" si="1"/>
+        <v>1.1170945664777256</v>
+      </c>
+      <c r="AH47" s="36">
+        <f t="shared" si="1"/>
+        <v>1.4296863558004607</v>
+      </c>
+      <c r="AI47" s="36">
+        <f t="shared" si="1"/>
+        <v>1.6945894571927249</v>
+      </c>
+    </row>
+    <row r="48" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X48" s="21">
+        <v>12</v>
+      </c>
+      <c r="Y48" s="36">
+        <f t="shared" si="1"/>
+        <v>4.1775521022186295</v>
+      </c>
+      <c r="Z48" s="36">
+        <f t="shared" si="1"/>
+        <v>3.6156767727313555</v>
+      </c>
+      <c r="AA48" s="36">
+        <f t="shared" si="1"/>
+        <v>3.0580567539531827</v>
+      </c>
+      <c r="AB48" s="36">
+        <f t="shared" si="1"/>
+        <v>2.5058707984150077</v>
+      </c>
+      <c r="AC48" s="36">
+        <f t="shared" si="1"/>
+        <v>1.960759267975912</v>
+      </c>
+      <c r="AD48" s="36">
+        <f t="shared" si="1"/>
+        <v>1.4250605033486317</v>
+      </c>
+      <c r="AE48" s="36">
+        <f t="shared" si="1"/>
+        <v>0.90219400514364168</v>
+      </c>
+      <c r="AF48" s="36">
+        <f t="shared" si="1"/>
+        <v>0.39728818697318308</v>
+      </c>
+      <c r="AG48" s="36">
+        <f t="shared" si="1"/>
+        <v>8.1804367214550158E-2</v>
+      </c>
+      <c r="AH48" s="36">
+        <f t="shared" si="1"/>
+        <v>0.52297479096090815</v>
+      </c>
+      <c r="AI48" s="36">
+        <f t="shared" si="1"/>
+        <v>0.90799895828681743</v>
+      </c>
+    </row>
+    <row r="49" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X49" s="21">
+        <v>13</v>
+      </c>
+      <c r="Y49" s="36">
+        <f t="shared" si="1"/>
+        <v>4.4988342340027225</v>
+      </c>
+      <c r="Z49" s="36">
+        <f t="shared" si="1"/>
+        <v>3.9174326370490835</v>
+      </c>
+      <c r="AA49" s="36">
+        <f t="shared" si="1"/>
+        <v>3.3403458525195524</v>
+      </c>
+      <c r="AB49" s="36">
+        <f t="shared" si="1"/>
+        <v>2.7687616383031801</v>
+      </c>
+      <c r="AC49" s="36">
+        <f t="shared" si="1"/>
+        <v>2.2043302022631748</v>
+      </c>
+      <c r="AD49" s="36">
+        <f t="shared" si="1"/>
+        <v>1.64939982093591</v>
+      </c>
+      <c r="AE49" s="36">
+        <f t="shared" si="1"/>
+        <v>1.1073982598095484</v>
+      </c>
+      <c r="AF49" s="36">
+        <f t="shared" si="1"/>
+        <v>0.58345697274955199</v>
+      </c>
+      <c r="AG49" s="36">
+        <f t="shared" si="1"/>
+        <v>8.5420408124551012E-2</v>
+      </c>
+      <c r="AH49" s="36">
+        <f t="shared" si="1"/>
+        <v>0.3746275574804579</v>
+      </c>
+      <c r="AI49" s="36">
+        <f t="shared" si="1"/>
+        <v>0.77849094682318898</v>
+      </c>
+    </row>
+    <row r="50" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="X50" s="21">
+        <v>14</v>
+      </c>
+      <c r="Y50" s="36">
+        <f t="shared" si="1"/>
+        <v>0.16178442578681609</v>
+      </c>
+      <c r="Z50" s="36">
+        <f t="shared" si="1"/>
+        <v>0.10731515002636886</v>
+      </c>
+      <c r="AA50" s="36">
+        <f t="shared" si="1"/>
+        <v>0.37451162677681088</v>
+      </c>
+      <c r="AB50" s="36">
+        <f t="shared" si="1"/>
+        <v>0.63929677231590953</v>
+      </c>
+      <c r="AC50" s="36">
+        <f t="shared" si="1"/>
+        <v>0.9009706870349955</v>
+      </c>
+      <c r="AD50" s="36">
+        <f t="shared" si="1"/>
+        <v>1.1585470318018245</v>
+      </c>
+      <c r="AE50" s="36">
+        <f t="shared" si="1"/>
+        <v>1.4106007196113557</v>
+      </c>
+      <c r="AF50" s="36">
+        <f t="shared" si="1"/>
+        <v>1.6550190549418209</v>
+      </c>
+      <c r="AG50" s="36">
+        <f t="shared" si="1"/>
+        <v>1.8885945020913686</v>
+      </c>
+      <c r="AH50" s="36">
+        <f t="shared" si="1"/>
+        <v>2.1063815946954603</v>
+      </c>
+      <c r="AI50" s="36">
+        <f t="shared" si="1"/>
+        <v>2.3008051438954591</v>
+      </c>
+    </row>
+    <row r="51" spans="24:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X51" s="22">
+        <v>15</v>
+      </c>
+      <c r="Y51" s="36">
+        <f t="shared" si="1"/>
+        <v>4.8063175092045478</v>
+      </c>
+      <c r="Z51" s="36">
+        <f t="shared" si="1"/>
+        <v>4.204533765393637</v>
+      </c>
+      <c r="AA51" s="36">
+        <f t="shared" si="1"/>
+        <v>3.6071809126177197</v>
+      </c>
+      <c r="AB51" s="36">
+        <f t="shared" si="1"/>
+        <v>3.0154753159368139</v>
+      </c>
+      <c r="AC51" s="36">
+        <f t="shared" si="1"/>
+        <v>2.4311056996127305</v>
+      </c>
+      <c r="AD51" s="36">
+        <f t="shared" si="1"/>
+        <v>1.8564732661136352</v>
+      </c>
+      <c r="AE51" s="36">
+        <f t="shared" si="1"/>
+        <v>1.2950801588572667</v>
+      </c>
+      <c r="AF51" s="36">
+        <f t="shared" si="1"/>
+        <v>0.7521649357977237</v>
+      </c>
+      <c r="AG51" s="36">
+        <f t="shared" si="1"/>
+        <v>0.23573027604455052</v>
+      </c>
+      <c r="AH51" s="36">
+        <f t="shared" si="1"/>
+        <v>0.24190026554137167</v>
+      </c>
+      <c r="AI51" s="36">
+        <f t="shared" si="1"/>
+        <v>0.66216034169408877</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/report/so-lieu.xlsx
+++ b/report/so-lieu.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nam5\HK1\DANL\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1566BB-EA99-4118-8C47-80F5B36FA310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{5D4A976F-8591-453F-9F74-74B3133F9416}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ket-qua" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -156,9 +155,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -674,31 +673,31 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1017,10 +1016,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF8EC5D-A521-4397-8972-9EF947F4DB2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1745,11 +1744,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AA96D2-8D5B-46B8-9E32-6F5443DED749}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O33" workbookViewId="0">
-      <selection activeCell="V40" sqref="V40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1849,17 +1848,17 @@
       <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1</v>
       </c>
       <c r="N4" s="8">
         <v>1</v>
@@ -1911,17 +1910,17 @@
       <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1</v>
       </c>
       <c r="N5" s="8">
         <v>1</v>
@@ -1973,17 +1972,17 @@
       <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1</v>
       </c>
       <c r="N6" s="8">
         <v>1</v>
@@ -2035,14 +2034,14 @@
       <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1</v>
       </c>
       <c r="M7" s="8">
         <v>1</v>
@@ -2097,14 +2096,14 @@
       <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1</v>
       </c>
       <c r="M8" s="8">
         <v>1</v>
@@ -2159,14 +2158,14 @@
       <c r="I9" s="7">
         <v>0</v>
       </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
       </c>
       <c r="M9" s="8">
         <v>1</v>
@@ -2221,11 +2220,11 @@
       <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
       </c>
       <c r="L10" s="8">
         <v>1</v>
@@ -2283,11 +2282,11 @@
       <c r="I11" s="7">
         <v>0</v>
       </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0</v>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1</v>
       </c>
       <c r="L11" s="8">
         <v>1</v>
@@ -2345,11 +2344,11 @@
       <c r="I12" s="7">
         <v>0</v>
       </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
+      <c r="J12" s="8">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1</v>
       </c>
       <c r="L12" s="8">
         <v>1</v>
@@ -2407,11 +2406,11 @@
       <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0</v>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
       </c>
       <c r="L13" s="8">
         <v>1</v>
@@ -2469,8 +2468,8 @@
       <c r="I14" s="10">
         <v>0</v>
       </c>
-      <c r="J14" s="10">
-        <v>0</v>
+      <c r="J14" s="11">
+        <v>1</v>
       </c>
       <c r="K14" s="11">
         <v>1</v>

--- a/report/so-lieu.xlsx
+++ b/report/so-lieu.xlsx
@@ -1747,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:U14"/>
+    <sheetView tabSelected="1" topLeftCell="J34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y37" sqref="Y37:AI51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,37 +2549,37 @@
         <v>1</v>
       </c>
       <c r="Y18" s="27">
-        <v>22.812111157196199</v>
+        <v>22</v>
       </c>
       <c r="Z18" s="28">
-        <v>22.812111157196199</v>
+        <v>22</v>
       </c>
       <c r="AA18" s="28">
-        <v>22.812111157196199</v>
+        <v>22</v>
       </c>
       <c r="AB18" s="28">
-        <v>22.812111157196199</v>
+        <v>22</v>
       </c>
       <c r="AC18" s="28">
-        <v>22.812111157196199</v>
+        <v>22</v>
       </c>
       <c r="AD18" s="28">
-        <v>22.812111157196199</v>
+        <v>22</v>
       </c>
       <c r="AE18" s="28">
-        <v>22.812111157196199</v>
+        <v>22</v>
       </c>
       <c r="AF18" s="28">
-        <v>22.812111157196199</v>
+        <v>22</v>
       </c>
       <c r="AG18" s="28">
-        <v>22.812111157196199</v>
+        <v>22</v>
       </c>
       <c r="AH18" s="28">
-        <v>22.812111157196199</v>
+        <v>22</v>
       </c>
       <c r="AI18" s="29">
-        <v>22.812111157196199</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -2587,37 +2587,37 @@
         <v>2</v>
       </c>
       <c r="Y19" s="30">
-        <v>22.2386075969582</v>
+        <v>21.913506613690199</v>
       </c>
       <c r="Z19" s="31">
-        <v>22.279693243882601</v>
+        <v>21.919166551440401</v>
       </c>
       <c r="AA19" s="31">
-        <v>22.3204558544885</v>
+        <v>21.924738410423402</v>
       </c>
       <c r="AB19" s="31">
-        <v>22.360805232341701</v>
+        <v>21.930200494478701</v>
       </c>
       <c r="AC19" s="31">
-        <v>22.4006155813417</v>
+        <v>21.935523888694998</v>
       </c>
       <c r="AD19" s="31">
-        <v>22.4397071653806</v>
+        <v>21.9406695516642</v>
       </c>
       <c r="AE19" s="31">
-        <v>22.477816576604798</v>
+        <v>21.945584196174899</v>
       </c>
       <c r="AF19" s="31">
-        <v>22.514548185149199</v>
+        <v>21.950194676652501</v>
       </c>
       <c r="AG19" s="31">
-        <v>22.549296458525699</v>
+        <v>21.954401064326198</v>
       </c>
       <c r="AH19" s="31">
-        <v>22.5811321126058</v>
+        <v>21.958070190646399</v>
       </c>
       <c r="AI19" s="32">
-        <v>22.608675545481798</v>
+        <v>21.961035348742602</v>
       </c>
     </row>
     <row r="20" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -2625,37 +2625,37 @@
         <v>3</v>
       </c>
       <c r="Y20" s="30">
-        <v>22.488160357099801</v>
+        <v>21.949173410708301</v>
       </c>
       <c r="Z20" s="31">
-        <v>22.511035028047701</v>
+        <v>21.9526419811877</v>
       </c>
       <c r="AA20" s="31">
-        <v>22.533742332975201</v>
+        <v>21.956054950036101</v>
       </c>
       <c r="AB20" s="31">
-        <v>22.5562369945856</v>
+        <v>21.959398302647799</v>
       </c>
       <c r="AC20" s="31">
-        <v>22.5784564428624</v>
+        <v>21.962653347327802</v>
       </c>
       <c r="AD20" s="31">
-        <v>22.600312163912701</v>
+        <v>21.965794870163101</v>
       </c>
       <c r="AE20" s="31">
-        <v>22.6216757480152</v>
+        <v>21.968788567101701</v>
       </c>
       <c r="AF20" s="31">
-        <v>22.642356033501599</v>
+        <v>21.9715876328804</v>
       </c>
       <c r="AG20" s="31">
-        <v>22.6620616943489</v>
+        <v>21.974128704555401</v>
       </c>
       <c r="AH20" s="31">
-        <v>22.680342489555599</v>
+        <v>21.976328301204099</v>
       </c>
       <c r="AI20" s="32">
-        <v>22.696509619390099</v>
+        <v>21.978082930772398</v>
       </c>
     </row>
     <row r="21" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -2663,37 +2663,37 @@
         <v>4</v>
       </c>
       <c r="Y21" s="30">
-        <v>22.2303754686451</v>
+        <v>21.909204898503098</v>
       </c>
       <c r="Z21" s="31">
-        <v>22.271465176059099</v>
+        <v>21.915416719926</v>
       </c>
       <c r="AA21" s="31">
-        <v>22.3122528036955</v>
+        <v>21.9215309985419</v>
       </c>
       <c r="AB21" s="31">
-        <v>22.352656464973599</v>
+        <v>21.9275230478925</v>
       </c>
       <c r="AC21" s="31">
-        <v>22.392562923107398</v>
+        <v>21.933359885802499</v>
       </c>
       <c r="AD21" s="31">
-        <v>22.431811867598402</v>
+        <v>21.938996923200101</v>
       </c>
       <c r="AE21" s="31">
-        <v>22.470170538000001</v>
+        <v>21.944373325183399</v>
       </c>
       <c r="AF21" s="31">
-        <v>22.507292139984099</v>
+        <v>21.949405791322299</v>
       </c>
       <c r="AG21" s="31">
-        <v>22.5426478364658</v>
+        <v>21.953981050341302</v>
       </c>
       <c r="AH21" s="31">
-        <v>22.575420365977301</v>
+        <v>21.957949056690499</v>
       </c>
       <c r="AI21" s="32">
-        <v>22.604361681752899</v>
+        <v>21.961122620460898</v>
       </c>
     </row>
     <row r="22" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -2701,37 +2701,37 @@
         <v>5</v>
       </c>
       <c r="Y22" s="30">
-        <v>21.4030044301213</v>
+        <v>21.777869783484</v>
       </c>
       <c r="Z22" s="31">
-        <v>21.5036372300636</v>
+        <v>21.792579951630699</v>
       </c>
       <c r="AA22" s="31">
-        <v>21.6035028581415</v>
+        <v>21.807073649203399</v>
       </c>
       <c r="AB22" s="31">
-        <v>21.702388223861899</v>
+        <v>21.821296623586601</v>
       </c>
       <c r="AC22" s="31">
-        <v>21.799996530237099</v>
+        <v>21.8351760989223</v>
       </c>
       <c r="AD22" s="31">
-        <v>21.895904291550199</v>
+        <v>21.848613029629501</v>
       </c>
       <c r="AE22" s="31">
-        <v>21.989491637561901</v>
+        <v>21.861470927284302</v>
       </c>
       <c r="AF22" s="31">
-        <v>22.079828255305902</v>
+        <v>21.873560287927798</v>
       </c>
       <c r="AG22" s="31">
-        <v>22.165489691850599</v>
+        <v>21.884618761859699</v>
       </c>
       <c r="AH22" s="31">
-        <v>22.244283365199799</v>
+        <v>21.894291497728702</v>
       </c>
       <c r="AI22" s="32">
-        <v>22.312927096587401</v>
+        <v>21.9021271877339</v>
       </c>
     </row>
     <row r="23" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -2739,37 +2739,37 @@
         <v>6</v>
       </c>
       <c r="Y23" s="30">
-        <v>21.729858482633698</v>
+        <v>21.830312665080399</v>
       </c>
       <c r="Z23" s="31">
-        <v>21.8074324808737</v>
+        <v>21.841419347312701</v>
       </c>
       <c r="AA23" s="31">
-        <v>21.8843982023247</v>
+        <v>21.852359952353002</v>
       </c>
       <c r="AB23" s="31">
-        <v>21.960585375110799</v>
+        <v>21.863093383104701</v>
       </c>
       <c r="AC23" s="31">
-        <v>22.035756315487699</v>
+        <v>21.8735646914323</v>
       </c>
       <c r="AD23" s="31">
-        <v>22.109571081742502</v>
+        <v>21.8836993660302</v>
       </c>
       <c r="AE23" s="31">
-        <v>22.181530919425601</v>
+        <v>21.893395139784602</v>
       </c>
       <c r="AF23" s="31">
-        <v>22.2508858325982</v>
+        <v>21.902510651853198</v>
       </c>
       <c r="AG23" s="31">
-        <v>22.316486714303799</v>
+        <v>21.9108511584278</v>
       </c>
       <c r="AH23" s="31">
-        <v>22.3765692397048</v>
+        <v>21.918154669870901</v>
       </c>
       <c r="AI23" s="32">
-        <v>22.428516585330499</v>
+        <v>21.924089934435401</v>
       </c>
     </row>
     <row r="24" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -2777,37 +2777,37 @@
         <v>7</v>
       </c>
       <c r="Y24" s="30">
-        <v>21.6175397463604</v>
+        <v>21.8098264570542</v>
       </c>
       <c r="Z24" s="31">
-        <v>21.704069240241299</v>
+        <v>21.822289469377498</v>
       </c>
       <c r="AA24" s="31">
-        <v>21.7898903078313</v>
+        <v>21.834566448064599</v>
       </c>
       <c r="AB24" s="31">
-        <v>21.874801636159301</v>
+        <v>21.8466112963992</v>
       </c>
       <c r="AC24" s="31">
-        <v>21.958521045807299</v>
+        <v>21.858362360755901</v>
       </c>
       <c r="AD24" s="31">
-        <v>22.040643167761701</v>
+        <v>21.869736005414499</v>
       </c>
       <c r="AE24" s="31">
-        <v>22.1205705761875</v>
+        <v>21.880617394954999</v>
       </c>
       <c r="AF24" s="31">
-        <v>22.197401254288899</v>
+        <v>21.890847743995099</v>
       </c>
       <c r="AG24" s="31">
-        <v>22.269749774358601</v>
+        <v>21.900208289728202</v>
       </c>
       <c r="AH24" s="31">
-        <v>22.335492282277801</v>
+        <v>21.908404899310099</v>
       </c>
       <c r="AI24" s="32">
-        <v>22.391511331074501</v>
+        <v>21.915066338623198</v>
       </c>
     </row>
     <row r="25" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -2815,37 +2815,37 @@
         <v>8</v>
       </c>
       <c r="Y25" s="30">
-        <v>21.143796698153398</v>
+        <v>21.7350495052134</v>
       </c>
       <c r="Z25" s="31">
-        <v>21.262739252588698</v>
+        <v>21.7526844296696</v>
       </c>
       <c r="AA25" s="31">
-        <v>21.3807847760588</v>
+        <v>21.770063036498701</v>
       </c>
       <c r="AB25" s="31">
-        <v>21.497685045924602</v>
+        <v>21.787120692132699</v>
       </c>
       <c r="AC25" s="31">
-        <v>21.6130947132053</v>
+        <v>21.803770541659802</v>
       </c>
       <c r="AD25" s="31">
-        <v>21.726521600749901</v>
+        <v>21.8198941365923</v>
       </c>
       <c r="AE25" s="31">
-        <v>21.837246153985099</v>
+        <v>21.835327863592301</v>
       </c>
       <c r="AF25" s="31">
-        <v>21.9441895406142</v>
+        <v>21.8498439302058</v>
       </c>
       <c r="AG25" s="31">
-        <v>22.045700517711701</v>
+        <v>21.863125959490201</v>
       </c>
       <c r="AH25" s="31">
-        <v>22.139234382726801</v>
+        <v>21.874744397670799</v>
       </c>
       <c r="AI25" s="32">
-        <v>22.220964950085499</v>
+        <v>21.884150541400199</v>
       </c>
     </row>
     <row r="26" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -2853,37 +2853,37 @@
         <v>9</v>
       </c>
       <c r="Y26" s="30">
-        <v>22.032053746871298</v>
+        <v>21.8791154638918</v>
       </c>
       <c r="Z26" s="31">
-        <v>22.086771581241599</v>
+        <v>21.887391209423999</v>
       </c>
       <c r="AA26" s="31">
-        <v>22.141096271112499</v>
+        <v>21.895537618391302</v>
       </c>
       <c r="AB26" s="31">
-        <v>22.194922298988899</v>
+        <v>21.903521920030698</v>
       </c>
       <c r="AC26" s="31">
-        <v>22.248104160564601</v>
+        <v>21.9113003094504</v>
       </c>
       <c r="AD26" s="31">
-        <v>22.300436504935401</v>
+        <v>21.918813529021602</v>
       </c>
       <c r="AE26" s="31">
-        <v>22.351622176105099</v>
+        <v>21.925980667083898</v>
       </c>
       <c r="AF26" s="31">
-        <v>22.401219943957699</v>
+        <v>21.9326908242505</v>
       </c>
       <c r="AG26" s="31">
-        <v>22.448558961402501</v>
+        <v>21.9387930242303</v>
       </c>
       <c r="AH26" s="31">
-        <v>22.4926039550596</v>
+        <v>21.9440870124897</v>
       </c>
       <c r="AI26" s="32">
-        <v>22.5317698647853</v>
+        <v>21.948322632239201</v>
       </c>
     </row>
     <row r="27" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -2891,37 +2891,37 @@
         <v>10</v>
       </c>
       <c r="Y27" s="30">
-        <v>21.967591049058001</v>
+        <v>21.868693309062099</v>
       </c>
       <c r="Z27" s="31">
-        <v>22.0269943539077</v>
+        <v>21.877696921528099</v>
       </c>
       <c r="AA27" s="31">
-        <v>22.085969116328901</v>
+        <v>21.886560348101199</v>
       </c>
       <c r="AB27" s="31">
-        <v>22.144400043795802</v>
+        <v>21.895247996931001</v>
       </c>
       <c r="AC27" s="31">
-        <v>22.202128056624499</v>
+        <v>21.903712260781599</v>
       </c>
       <c r="AD27" s="31">
-        <v>22.258928496242198</v>
+        <v>21.9118886882809</v>
       </c>
       <c r="AE27" s="31">
-        <v>22.3144760292485</v>
+        <v>21.9196891955939</v>
       </c>
       <c r="AF27" s="31">
-        <v>22.368287187386802</v>
+        <v>21.926992924174399</v>
       </c>
       <c r="AG27" s="31">
-        <v>22.419626186338899</v>
+        <v>21.933635139529201</v>
       </c>
       <c r="AH27" s="31">
-        <v>22.467356117947201</v>
+        <v>21.939397050715499</v>
       </c>
       <c r="AI27" s="32">
-        <v>22.5097333071304</v>
+        <v>21.944004997951701</v>
       </c>
     </row>
     <row r="28" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -2929,37 +2929,37 @@
         <v>11</v>
       </c>
       <c r="Y28" s="30">
-        <v>21.5597711713385</v>
+        <v>21.799448794031701</v>
       </c>
       <c r="Z28" s="31">
-        <v>21.6508776934491</v>
+        <v>21.812678884017402</v>
       </c>
       <c r="AA28" s="31">
-        <v>21.741228776965301</v>
+        <v>21.825711072582401</v>
       </c>
       <c r="AB28" s="31">
-        <v>21.8306086495176</v>
+        <v>21.8384959491048</v>
       </c>
       <c r="AC28" s="31">
-        <v>21.918714424543801</v>
+        <v>21.850967300830899</v>
       </c>
       <c r="AD28" s="31">
-        <v>22.0051102862218</v>
+        <v>21.863035123107601</v>
       </c>
       <c r="AE28" s="31">
-        <v>22.089152813844599</v>
+        <v>21.874575574128698</v>
       </c>
       <c r="AF28" s="31">
-        <v>22.169868774256202</v>
+        <v>21.8854170684465</v>
       </c>
       <c r="AG28" s="31">
-        <v>22.2457608046251</v>
+        <v>21.895322827852301</v>
       </c>
       <c r="AH28" s="31">
-        <v>22.314530998276101</v>
+        <v>21.903974312286099</v>
       </c>
       <c r="AI28" s="32">
-        <v>22.372809680582399</v>
+        <v>21.9109700808404</v>
       </c>
     </row>
     <row r="29" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -2967,37 +2967,37 @@
         <v>12</v>
       </c>
       <c r="Y29" s="30">
-        <v>21.080938537511901</v>
+        <v>21.723944959399098</v>
       </c>
       <c r="Z29" s="31">
-        <v>21.204551109999102</v>
+        <v>21.742387860980699</v>
       </c>
       <c r="AA29" s="31">
-        <v>21.3272275141303</v>
+        <v>21.760560107609301</v>
       </c>
       <c r="AB29" s="31">
-        <v>21.448708424348698</v>
+        <v>21.778393153540801</v>
       </c>
       <c r="AC29" s="31">
-        <v>21.568632961045299</v>
+        <v>21.795794819500902</v>
       </c>
       <c r="AD29" s="31">
-        <v>21.686486689263301</v>
+        <v>21.812639324415301</v>
       </c>
       <c r="AE29" s="31">
-        <v>21.801517318868399</v>
+        <v>21.828752880917101</v>
       </c>
       <c r="AF29" s="31">
-        <v>21.9125965988659</v>
+        <v>21.843893599431802</v>
       </c>
       <c r="AG29" s="31">
-        <v>22.017996960787201</v>
+        <v>21.8577259208657</v>
       </c>
       <c r="AH29" s="31">
-        <v>22.1150544540114</v>
+        <v>21.8697954240744</v>
       </c>
       <c r="AI29" s="32">
-        <v>22.1997597708231</v>
+        <v>21.879524289801299</v>
       </c>
     </row>
     <row r="30" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -3005,37 +3005,37 @@
         <v>13</v>
       </c>
       <c r="Y30" s="30">
-        <v>21.010256468519401</v>
+        <v>21.714365612676701</v>
       </c>
       <c r="Z30" s="31">
-        <v>21.138164819849202</v>
+        <v>21.733522775743101</v>
       </c>
       <c r="AA30" s="31">
-        <v>21.265123912445699</v>
+        <v>21.7524048150871</v>
       </c>
       <c r="AB30" s="31">
-        <v>21.3908724395733</v>
+        <v>21.770941903795499</v>
       </c>
       <c r="AC30" s="31">
-        <v>21.515047355502102</v>
+        <v>21.789040027957199</v>
       </c>
       <c r="AD30" s="31">
-        <v>21.6371320393941</v>
+        <v>21.806570681262301</v>
       </c>
       <c r="AE30" s="31">
-        <v>21.756372382841899</v>
+        <v>21.823355856666499</v>
       </c>
       <c r="AF30" s="31">
-        <v>21.871639465995099</v>
+        <v>21.839146839922002</v>
       </c>
       <c r="AG30" s="31">
-        <v>21.981207510212599</v>
+        <v>21.853596606133301</v>
       </c>
       <c r="AH30" s="31">
-        <v>22.082418062645701</v>
+        <v>21.8662311551583</v>
       </c>
       <c r="AI30" s="32">
-        <v>22.171268008301102</v>
+        <v>21.876440380331999</v>
       </c>
     </row>
     <row r="31" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -3043,37 +3043,37 @@
         <v>14</v>
       </c>
       <c r="Y31" s="30">
-        <v>21.9644074263269</v>
+        <v>21.870163385536099</v>
       </c>
       <c r="Z31" s="31">
-        <v>22.023609333005801</v>
+        <v>21.8790705652446</v>
       </c>
       <c r="AA31" s="31">
-        <v>22.082392557890898</v>
+        <v>21.8878385969516</v>
       </c>
       <c r="AB31" s="31">
-        <v>22.1406452899095</v>
+        <v>21.8964321286659</v>
       </c>
       <c r="AC31" s="31">
-        <v>22.198213551147699</v>
+        <v>21.904803868042698</v>
       </c>
       <c r="AD31" s="31">
-        <v>22.254880346996401</v>
+        <v>21.912889783649899</v>
       </c>
       <c r="AE31" s="31">
-        <v>22.310332158314498</v>
+        <v>21.9206023619242</v>
       </c>
       <c r="AF31" s="31">
-        <v>22.364104192087201</v>
+        <v>21.9278215355497</v>
       </c>
       <c r="AG31" s="31">
-        <v>22.415490790460101</v>
+        <v>21.934383695776798</v>
       </c>
       <c r="AH31" s="31">
-        <v>22.463403950833001</v>
+        <v>21.9400716941627</v>
       </c>
       <c r="AI31" s="32">
-        <v>22.506177131657001</v>
+        <v>21.944614292445898</v>
       </c>
     </row>
     <row r="32" spans="24:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3081,37 +3081,37 @@
         <v>15</v>
       </c>
       <c r="Y32" s="33">
-        <v>20.942610147975</v>
+        <v>21.7047430093508</v>
       </c>
       <c r="Z32" s="34">
-        <v>21.0750025716134</v>
+        <v>21.724578902022198</v>
       </c>
       <c r="AA32" s="34">
-        <v>21.206420199224102</v>
+        <v>21.7441291246421</v>
       </c>
       <c r="AB32" s="34">
-        <v>21.336595430493901</v>
+        <v>21.763321075731199</v>
       </c>
       <c r="AC32" s="34">
-        <v>21.465156746085199</v>
+        <v>21.782056992709698</v>
       </c>
       <c r="AD32" s="34">
-        <v>21.591575881455</v>
+        <v>21.800203237898899</v>
       </c>
       <c r="AE32" s="34">
-        <v>21.715082365051401</v>
+        <v>21.817574707858299</v>
       </c>
       <c r="AF32" s="34">
-        <v>21.834523714124501</v>
+        <v>21.833912833718699</v>
       </c>
       <c r="AG32" s="34">
-        <v>21.948139339270199</v>
+        <v>21.848857011934701</v>
       </c>
       <c r="AH32" s="34">
-        <v>22.053218058419102</v>
+        <v>21.861915083073999</v>
       </c>
       <c r="AI32" s="35">
-        <v>22.1456752751727</v>
+        <v>21.872454279964099</v>
       </c>
     </row>
     <row r="35" spans="24:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3159,47 +3159,47 @@
       </c>
       <c r="Y37" s="36">
         <f>ABS(Y18-22)/22*100</f>
-        <v>3.6914143508918134</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="36">
         <f t="shared" ref="Z37:AI37" si="0">ABS(Z18-22)/22*100</f>
-        <v>3.6914143508918134</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="36">
         <f t="shared" si="0"/>
-        <v>3.6914143508918134</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="36">
         <f t="shared" si="0"/>
-        <v>3.6914143508918134</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="36">
         <f t="shared" si="0"/>
-        <v>3.6914143508918134</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="36">
         <f t="shared" si="0"/>
-        <v>3.6914143508918134</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="36">
         <f t="shared" si="0"/>
-        <v>3.6914143508918134</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="36">
         <f t="shared" si="0"/>
-        <v>3.6914143508918134</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="36">
         <f t="shared" si="0"/>
-        <v>3.6914143508918134</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="36">
         <f t="shared" si="0"/>
-        <v>3.6914143508918134</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="36">
         <f t="shared" si="0"/>
-        <v>3.6914143508918134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -3208,47 +3208,47 @@
       </c>
       <c r="Y38" s="36">
         <f t="shared" ref="Y38:AI51" si="1">ABS(Y19-22)/22*100</f>
-        <v>1.0845799861736374</v>
+        <v>0.39315175595364077</v>
       </c>
       <c r="Z38" s="36">
         <f t="shared" si="1"/>
-        <v>1.2713329267390965</v>
+        <v>0.36742476617999326</v>
       </c>
       <c r="AA38" s="36">
         <f t="shared" si="1"/>
-        <v>1.4566175204022742</v>
+        <v>0.34209813443908388</v>
       </c>
       <c r="AB38" s="36">
         <f t="shared" si="1"/>
-        <v>1.6400237833713662</v>
+        <v>0.31727047964226912</v>
       </c>
       <c r="AC38" s="36">
         <f t="shared" si="1"/>
-        <v>1.8209799151895467</v>
+        <v>0.29307323320455286</v>
       </c>
       <c r="AD38" s="36">
         <f t="shared" si="1"/>
-        <v>1.9986689335481824</v>
+        <v>0.26968385607181683</v>
       </c>
       <c r="AE38" s="36">
         <f t="shared" si="1"/>
-        <v>2.1718935300218107</v>
+        <v>0.24734456284136933</v>
       </c>
       <c r="AF38" s="36">
         <f t="shared" si="1"/>
-        <v>2.3388553870418121</v>
+        <v>0.22638783339772317</v>
       </c>
       <c r="AG38" s="36">
         <f t="shared" si="1"/>
-        <v>2.4968020842077236</v>
+        <v>0.20726788942637078</v>
       </c>
       <c r="AH38" s="36">
         <f t="shared" si="1"/>
-        <v>2.6415096027536387</v>
+        <v>0.19059004251636677</v>
       </c>
       <c r="AI38" s="36">
         <f t="shared" si="1"/>
-        <v>2.7667070249172645</v>
+        <v>0.17711205116999196</v>
       </c>
     </row>
     <row r="39" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -3257,47 +3257,47 @@
       </c>
       <c r="Y39" s="36">
         <f t="shared" si="1"/>
-        <v>2.2189107140900046</v>
+        <v>0.23102995132590368</v>
       </c>
       <c r="Z39" s="36">
         <f t="shared" si="1"/>
-        <v>2.3228864911259124</v>
+        <v>0.21526372187409171</v>
       </c>
       <c r="AA39" s="36">
         <f t="shared" si="1"/>
-        <v>2.4261015135236428</v>
+        <v>0.19975022710863044</v>
       </c>
       <c r="AB39" s="36">
         <f t="shared" si="1"/>
-        <v>2.5283499753890903</v>
+        <v>0.18455316978273376</v>
       </c>
       <c r="AC39" s="36">
         <f t="shared" si="1"/>
-        <v>2.6293474675563644</v>
+        <v>0.16975751214635632</v>
       </c>
       <c r="AD39" s="36">
         <f t="shared" si="1"/>
-        <v>2.7286916541486406</v>
+        <v>0.15547786289499368</v>
       </c>
       <c r="AE39" s="36">
         <f t="shared" si="1"/>
-        <v>2.8257988546145443</v>
+        <v>0.14187014953772412</v>
       </c>
       <c r="AF39" s="36">
         <f t="shared" si="1"/>
-        <v>2.9198001522799966</v>
+        <v>0.1291471232709088</v>
       </c>
       <c r="AG39" s="36">
         <f t="shared" si="1"/>
-        <v>3.0093713379495441</v>
+        <v>0.11759679747544993</v>
       </c>
       <c r="AH39" s="36">
         <f t="shared" si="1"/>
-        <v>3.0924658616163598</v>
+        <v>0.10759863089046075</v>
       </c>
       <c r="AI39" s="36">
         <f t="shared" si="1"/>
-        <v>3.1659528154095411</v>
+        <v>9.96230419436437E-2</v>
       </c>
     </row>
     <row r="40" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -3306,47 +3306,47 @@
       </c>
       <c r="Y40" s="36">
         <f t="shared" si="1"/>
-        <v>1.0471612211140913</v>
+        <v>0.41270500680409777</v>
       </c>
       <c r="Z40" s="36">
         <f t="shared" si="1"/>
-        <v>1.2339326184504495</v>
+        <v>0.38446945488181744</v>
       </c>
       <c r="AA40" s="36">
         <f t="shared" si="1"/>
-        <v>1.419330925888638</v>
+        <v>0.35667727935499788</v>
       </c>
       <c r="AB40" s="36">
         <f t="shared" si="1"/>
-        <v>1.6029839316981764</v>
+        <v>0.32944069139772897</v>
       </c>
       <c r="AC40" s="36">
         <f t="shared" si="1"/>
-        <v>1.7843769232154472</v>
+        <v>0.30290960998864008</v>
       </c>
       <c r="AD40" s="36">
         <f t="shared" si="1"/>
-        <v>1.9627812163563716</v>
+        <v>0.27728671272681477</v>
       </c>
       <c r="AE40" s="36">
         <f t="shared" si="1"/>
-        <v>2.1371388090909158</v>
+        <v>0.25284852189364088</v>
       </c>
       <c r="AF40" s="36">
         <f t="shared" si="1"/>
-        <v>2.3058733635640847</v>
+        <v>0.22997367580773251</v>
       </c>
       <c r="AG40" s="36">
         <f t="shared" si="1"/>
-        <v>2.4665810748445467</v>
+        <v>0.20917704390317482</v>
       </c>
       <c r="AH40" s="36">
         <f t="shared" si="1"/>
-        <v>2.6155471180786418</v>
+        <v>0.19114065140682418</v>
       </c>
       <c r="AI40" s="36">
         <f t="shared" si="1"/>
-        <v>2.7470985534222661</v>
+        <v>0.1767153615413716</v>
       </c>
     </row>
     <row r="41" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -3355,47 +3355,47 @@
       </c>
       <c r="Y41" s="36">
         <f t="shared" si="1"/>
-        <v>2.7136162267213657</v>
+        <v>1.0096828023454534</v>
       </c>
       <c r="Z41" s="36">
         <f t="shared" si="1"/>
-        <v>2.2561944088018202</v>
+        <v>0.94281840167863862</v>
       </c>
       <c r="AA41" s="36">
         <f t="shared" si="1"/>
-        <v>1.8022597357204553</v>
+        <v>0.87693795816636622</v>
       </c>
       <c r="AB41" s="36">
         <f t="shared" si="1"/>
-        <v>1.3527808006277326</v>
+        <v>0.81228807460635777</v>
       </c>
       <c r="AC41" s="36">
         <f t="shared" si="1"/>
-        <v>0.90910668074045986</v>
+        <v>0.74919955035318064</v>
       </c>
       <c r="AD41" s="36">
         <f t="shared" si="1"/>
-        <v>0.47316231113545953</v>
+        <v>0.68812259259317765</v>
       </c>
       <c r="AE41" s="36">
         <f t="shared" si="1"/>
-        <v>4.7765283809540128E-2</v>
+        <v>0.6296776032531749</v>
       </c>
       <c r="AF41" s="36">
         <f t="shared" si="1"/>
-        <v>0.36285570593591709</v>
+        <v>0.57472596396455278</v>
       </c>
       <c r="AG41" s="36">
         <f t="shared" si="1"/>
-        <v>0.75222587204817748</v>
+        <v>0.5244601733650065</v>
       </c>
       <c r="AH41" s="36">
         <f t="shared" si="1"/>
-        <v>1.1103789327263576</v>
+        <v>0.48049319214226477</v>
       </c>
       <c r="AI41" s="36">
         <f t="shared" si="1"/>
-        <v>1.422395893579097</v>
+        <v>0.44487641939136519</v>
       </c>
     </row>
     <row r="42" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -3404,47 +3404,47 @@
       </c>
       <c r="Y42" s="36">
         <f t="shared" si="1"/>
-        <v>1.2279159880286434</v>
+        <v>0.77130606781636857</v>
       </c>
       <c r="Z42" s="36">
         <f t="shared" si="1"/>
-        <v>0.8753069051195439</v>
+        <v>0.72082114857863</v>
       </c>
       <c r="AA42" s="36">
         <f t="shared" si="1"/>
-        <v>0.52546271670590861</v>
+        <v>0.6710911256681743</v>
       </c>
       <c r="AB42" s="36">
         <f t="shared" si="1"/>
-        <v>0.17915738586000304</v>
+        <v>0.62230280406954108</v>
       </c>
       <c r="AC42" s="36">
         <f t="shared" si="1"/>
-        <v>0.16252870676226908</v>
+        <v>0.57470594803500064</v>
       </c>
       <c r="AD42" s="36">
         <f t="shared" si="1"/>
-        <v>0.49805037155682513</v>
+        <v>0.52863924531727302</v>
       </c>
       <c r="AE42" s="36">
         <f t="shared" si="1"/>
-        <v>0.8251405428436408</v>
+        <v>0.48456754643362904</v>
       </c>
       <c r="AF42" s="36">
         <f t="shared" si="1"/>
-        <v>1.1403901481736383</v>
+        <v>0.44313340066727974</v>
       </c>
       <c r="AG42" s="36">
         <f t="shared" si="1"/>
-        <v>1.4385759741081794</v>
+        <v>0.40522200714636436</v>
       </c>
       <c r="AH42" s="36">
         <f t="shared" si="1"/>
-        <v>1.7116783622945453</v>
+        <v>0.37202422785953942</v>
       </c>
       <c r="AI42" s="36">
         <f t="shared" si="1"/>
-        <v>1.9478026605931766</v>
+        <v>0.34504575256636111</v>
       </c>
     </row>
     <row r="43" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -3453,47 +3453,47 @@
       </c>
       <c r="Y43" s="36">
         <f t="shared" si="1"/>
-        <v>1.7384556983618182</v>
+        <v>0.86442519520818195</v>
       </c>
       <c r="Z43" s="36">
         <f t="shared" si="1"/>
-        <v>1.3451398170850031</v>
+        <v>0.80777513919318977</v>
       </c>
       <c r="AA43" s="36">
         <f t="shared" si="1"/>
-        <v>0.95504405531227377</v>
+        <v>0.75197069061545752</v>
       </c>
       <c r="AB43" s="36">
         <f t="shared" si="1"/>
-        <v>0.56908347200317755</v>
+        <v>0.69722138000363809</v>
       </c>
       <c r="AC43" s="36">
         <f t="shared" si="1"/>
-        <v>0.18854070087591554</v>
+        <v>0.64380745110953985</v>
       </c>
       <c r="AD43" s="36">
         <f t="shared" si="1"/>
-        <v>0.18474167164409425</v>
+        <v>0.59210906629773319</v>
       </c>
       <c r="AE43" s="36">
         <f t="shared" si="1"/>
-        <v>0.54804807357954644</v>
+        <v>0.54264820475000286</v>
       </c>
       <c r="AF43" s="36">
         <f t="shared" si="1"/>
-        <v>0.89727842858590245</v>
+        <v>0.49614661820409434</v>
       </c>
       <c r="AG43" s="36">
         <f t="shared" si="1"/>
-        <v>1.2261353379936419</v>
+        <v>0.45359868305362933</v>
       </c>
       <c r="AH43" s="36">
         <f t="shared" si="1"/>
-        <v>1.524964919444552</v>
+        <v>0.41634136677227601</v>
       </c>
       <c r="AI43" s="36">
         <f t="shared" si="1"/>
-        <v>1.7795969594295482</v>
+        <v>0.3860620971672804</v>
       </c>
     </row>
     <row r="44" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -3502,47 +3502,47 @@
       </c>
       <c r="Y44" s="36">
         <f t="shared" si="1"/>
-        <v>3.8918331902118264</v>
+        <v>1.2043204308481814</v>
       </c>
       <c r="Z44" s="36">
         <f t="shared" si="1"/>
-        <v>3.3511852155059167</v>
+        <v>1.1241616833200008</v>
       </c>
       <c r="AA44" s="36">
         <f t="shared" si="1"/>
-        <v>2.8146146542781834</v>
+        <v>1.0451680159149939</v>
       </c>
       <c r="AB44" s="36">
         <f t="shared" si="1"/>
-        <v>2.2832497912518108</v>
+        <v>0.96763321757863896</v>
       </c>
       <c r="AC44" s="36">
         <f t="shared" si="1"/>
-        <v>1.7586603945213659</v>
+        <v>0.89195208336453835</v>
       </c>
       <c r="AD44" s="36">
         <f t="shared" si="1"/>
-        <v>1.2430836329549939</v>
+        <v>0.81866301548954634</v>
       </c>
       <c r="AE44" s="36">
         <f t="shared" si="1"/>
-        <v>0.73979020915864169</v>
+        <v>0.74850971094408558</v>
       </c>
       <c r="AF44" s="36">
         <f t="shared" si="1"/>
-        <v>0.25368390629908982</v>
+        <v>0.68252758997363505</v>
       </c>
       <c r="AG44" s="36">
         <f t="shared" si="1"/>
-        <v>0.20772962596227793</v>
+        <v>0.62215472958999452</v>
       </c>
       <c r="AH44" s="36">
         <f t="shared" si="1"/>
-        <v>0.63288355784909744</v>
+        <v>0.569343646950913</v>
       </c>
       <c r="AI44" s="36">
         <f t="shared" si="1"/>
-        <v>1.0043861367522666</v>
+        <v>0.52658844818091211</v>
       </c>
     </row>
     <row r="45" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -3551,47 +3551,47 @@
       </c>
       <c r="Y45" s="36">
         <f t="shared" si="1"/>
-        <v>0.14569884941499306</v>
+        <v>0.54947516412818109</v>
       </c>
       <c r="Z45" s="36">
         <f t="shared" si="1"/>
-        <v>0.39441627837090659</v>
+        <v>0.51185813898182242</v>
       </c>
       <c r="AA45" s="36">
         <f t="shared" si="1"/>
-        <v>0.64134668687499452</v>
+        <v>0.47482900731226479</v>
       </c>
       <c r="AB45" s="36">
         <f t="shared" si="1"/>
-        <v>0.88601044994954303</v>
+        <v>0.43853672713318947</v>
       </c>
       <c r="AC45" s="36">
         <f t="shared" si="1"/>
-        <v>1.1277461843845511</v>
+        <v>0.40318041158909002</v>
       </c>
       <c r="AD45" s="36">
         <f t="shared" si="1"/>
-        <v>1.3656204769790974</v>
+        <v>0.36902941353817392</v>
       </c>
       <c r="AE45" s="36">
         <f t="shared" si="1"/>
-        <v>1.5982826186595422</v>
+        <v>0.33645151325500738</v>
       </c>
       <c r="AF45" s="36">
         <f t="shared" si="1"/>
-        <v>1.8237270179895404</v>
+        <v>0.30595079886136423</v>
       </c>
       <c r="AG45" s="36">
         <f t="shared" si="1"/>
-        <v>2.0389043700113683</v>
+        <v>0.27821352622590917</v>
       </c>
       <c r="AH45" s="36">
         <f t="shared" si="1"/>
-        <v>2.2391088866345465</v>
+        <v>0.2541499432286381</v>
       </c>
       <c r="AI45" s="36">
         <f t="shared" si="1"/>
-        <v>2.4171357490240908</v>
+        <v>0.23489712618545155</v>
       </c>
     </row>
     <row r="46" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -3600,47 +3600,47 @@
       </c>
       <c r="Y46" s="36">
         <f t="shared" si="1"/>
-        <v>0.14731341337272336</v>
+        <v>0.5968485951722774</v>
       </c>
       <c r="Z46" s="36">
         <f t="shared" si="1"/>
-        <v>0.12270160867136261</v>
+        <v>0.55592308396318846</v>
       </c>
       <c r="AA46" s="36">
         <f t="shared" si="1"/>
-        <v>0.39076871058591228</v>
+        <v>0.51563478135818741</v>
       </c>
       <c r="AB46" s="36">
         <f t="shared" si="1"/>
-        <v>0.65636383543546251</v>
+        <v>0.47614546849544909</v>
       </c>
       <c r="AC46" s="36">
         <f t="shared" si="1"/>
-        <v>0.9187638937477226</v>
+        <v>0.43767154190182045</v>
       </c>
       <c r="AD46" s="36">
         <f t="shared" si="1"/>
-        <v>1.1769477101918113</v>
+        <v>0.40050596235954505</v>
       </c>
       <c r="AE46" s="36">
         <f t="shared" si="1"/>
-        <v>1.4294364965840891</v>
+        <v>0.36504911093681741</v>
       </c>
       <c r="AF46" s="36">
         <f t="shared" si="1"/>
-        <v>1.6740326699400077</v>
+        <v>0.33185034466182051</v>
       </c>
       <c r="AG46" s="36">
         <f t="shared" si="1"/>
-        <v>1.9073917560859046</v>
+        <v>0.30165845668544866</v>
       </c>
       <c r="AH46" s="36">
         <f t="shared" si="1"/>
-        <v>2.1243459906690956</v>
+        <v>0.27546795129318663</v>
       </c>
       <c r="AI46" s="36">
         <f t="shared" si="1"/>
-        <v>2.3169695778654544</v>
+        <v>0.25452273658317576</v>
       </c>
     </row>
     <row r="47" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -3649,47 +3649,47 @@
       </c>
       <c r="Y47" s="36">
         <f t="shared" si="1"/>
-        <v>2.0010401302795442</v>
+        <v>0.91159639076499654</v>
       </c>
       <c r="Z47" s="36">
         <f t="shared" si="1"/>
-        <v>1.5869195752313623</v>
+        <v>0.85145961810272042</v>
       </c>
       <c r="AA47" s="36">
         <f t="shared" si="1"/>
-        <v>1.1762328319759068</v>
+        <v>0.79222239735272437</v>
       </c>
       <c r="AB47" s="36">
         <f t="shared" si="1"/>
-        <v>0.76996068401090734</v>
+        <v>0.73410932225090875</v>
       </c>
       <c r="AC47" s="36">
         <f t="shared" si="1"/>
-        <v>0.36947988843727003</v>
+        <v>0.67742135985955154</v>
       </c>
       <c r="AD47" s="36">
         <f t="shared" si="1"/>
-        <v>2.3228573735455494E-2</v>
+        <v>0.6225676222381793</v>
       </c>
       <c r="AE47" s="36">
         <f t="shared" si="1"/>
-        <v>0.4052400629299962</v>
+        <v>0.57011102668773428</v>
       </c>
       <c r="AF47" s="36">
         <f t="shared" si="1"/>
-        <v>0.77213079207364321</v>
+        <v>0.52083150706136194</v>
       </c>
       <c r="AG47" s="36">
         <f t="shared" si="1"/>
-        <v>1.1170945664777256</v>
+        <v>0.47580532794408792</v>
       </c>
       <c r="AH47" s="36">
         <f t="shared" si="1"/>
-        <v>1.4296863558004607</v>
+        <v>0.43648039869954985</v>
       </c>
       <c r="AI47" s="36">
         <f t="shared" si="1"/>
-        <v>1.6945894571927249</v>
+        <v>0.40468145072545458</v>
       </c>
     </row>
     <row r="48" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -3698,47 +3698,47 @@
       </c>
       <c r="Y48" s="36">
         <f t="shared" si="1"/>
-        <v>4.1775521022186295</v>
+        <v>1.2547956390950077</v>
       </c>
       <c r="Z48" s="36">
         <f t="shared" si="1"/>
-        <v>3.6156767727313555</v>
+        <v>1.1709642682695496</v>
       </c>
       <c r="AA48" s="36">
         <f t="shared" si="1"/>
-        <v>3.0580567539531827</v>
+        <v>1.0883631472304505</v>
       </c>
       <c r="AB48" s="36">
         <f t="shared" si="1"/>
-        <v>2.5058707984150077</v>
+        <v>1.0073038475418143</v>
       </c>
       <c r="AC48" s="36">
         <f t="shared" si="1"/>
-        <v>1.960759267975912</v>
+        <v>0.92820536590499225</v>
       </c>
       <c r="AD48" s="36">
         <f t="shared" si="1"/>
-        <v>1.4250605033486317</v>
+        <v>0.85163943447590584</v>
       </c>
       <c r="AE48" s="36">
         <f t="shared" si="1"/>
-        <v>0.90219400514364168</v>
+        <v>0.77839599583136021</v>
       </c>
       <c r="AF48" s="36">
         <f t="shared" si="1"/>
-        <v>0.39728818697318308</v>
+        <v>0.70957454803726583</v>
       </c>
       <c r="AG48" s="36">
         <f t="shared" si="1"/>
-        <v>8.1804367214550158E-2</v>
+        <v>0.64670035970136175</v>
       </c>
       <c r="AH48" s="36">
         <f t="shared" si="1"/>
-        <v>0.52297479096090815</v>
+        <v>0.59183898147999836</v>
       </c>
       <c r="AI48" s="36">
         <f t="shared" si="1"/>
-        <v>0.90799895828681743</v>
+        <v>0.54761686453954828</v>
       </c>
     </row>
     <row r="49" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -3747,47 +3747,47 @@
       </c>
       <c r="Y49" s="36">
         <f t="shared" si="1"/>
-        <v>4.4988342340027225</v>
+        <v>1.2983381241968124</v>
       </c>
       <c r="Z49" s="36">
         <f t="shared" si="1"/>
-        <v>3.9174326370490835</v>
+        <v>1.2112601102586333</v>
       </c>
       <c r="AA49" s="36">
         <f t="shared" si="1"/>
-        <v>3.3403458525195524</v>
+        <v>1.1254326586949985</v>
       </c>
       <c r="AB49" s="36">
         <f t="shared" si="1"/>
-        <v>2.7687616383031801</v>
+        <v>1.0411731645659117</v>
       </c>
       <c r="AC49" s="36">
         <f t="shared" si="1"/>
-        <v>2.2043302022631748</v>
+        <v>0.95890896383091284</v>
       </c>
       <c r="AD49" s="36">
         <f t="shared" si="1"/>
-        <v>1.64939982093591</v>
+        <v>0.87922417608045189</v>
       </c>
       <c r="AE49" s="36">
         <f t="shared" si="1"/>
-        <v>1.1073982598095484</v>
+        <v>0.80292792424318682</v>
       </c>
       <c r="AF49" s="36">
         <f t="shared" si="1"/>
-        <v>0.58345697274955199</v>
+        <v>0.73115072762726518</v>
       </c>
       <c r="AG49" s="36">
         <f t="shared" si="1"/>
-        <v>8.5420408124551012E-2</v>
+        <v>0.6654699721213575</v>
       </c>
       <c r="AH49" s="36">
         <f t="shared" si="1"/>
-        <v>0.3746275574804579</v>
+        <v>0.60804020382591129</v>
       </c>
       <c r="AI49" s="36">
         <f t="shared" si="1"/>
-        <v>0.77849094682318898</v>
+        <v>0.56163463485454845</v>
       </c>
     </row>
     <row r="50" spans="24:35" ht="16.5" x14ac:dyDescent="0.25">
@@ -3796,47 +3796,47 @@
       </c>
       <c r="Y50" s="36">
         <f t="shared" si="1"/>
-        <v>0.16178442578681609</v>
+        <v>0.59016642938136887</v>
       </c>
       <c r="Z50" s="36">
         <f t="shared" si="1"/>
-        <v>0.10731515002636886</v>
+        <v>0.54967924888818165</v>
       </c>
       <c r="AA50" s="36">
         <f t="shared" si="1"/>
-        <v>0.37451162677681088</v>
+        <v>0.50982455931091086</v>
       </c>
       <c r="AB50" s="36">
         <f t="shared" si="1"/>
-        <v>0.63929677231590953</v>
+        <v>0.47076305151863612</v>
       </c>
       <c r="AC50" s="36">
         <f t="shared" si="1"/>
-        <v>0.9009706870349955</v>
+        <v>0.4327096907150072</v>
       </c>
       <c r="AD50" s="36">
         <f t="shared" si="1"/>
-        <v>1.1585470318018245</v>
+        <v>0.39595552886409729</v>
       </c>
       <c r="AE50" s="36">
         <f t="shared" si="1"/>
-        <v>1.4106007196113557</v>
+        <v>0.3608983548900016</v>
       </c>
       <c r="AF50" s="36">
         <f t="shared" si="1"/>
-        <v>1.6550190549418209</v>
+        <v>0.32808392931954378</v>
       </c>
       <c r="AG50" s="36">
         <f t="shared" si="1"/>
-        <v>1.8885945020913686</v>
+        <v>0.29825592828728015</v>
       </c>
       <c r="AH50" s="36">
         <f t="shared" si="1"/>
-        <v>2.1063815946954603</v>
+        <v>0.27240139016954407</v>
       </c>
       <c r="AI50" s="36">
         <f t="shared" si="1"/>
-        <v>2.3008051438954591</v>
+        <v>0.25175321615500806</v>
       </c>
     </row>
     <row r="51" spans="24:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3845,47 +3845,47 @@
       </c>
       <c r="Y51" s="36">
         <f t="shared" si="1"/>
-        <v>4.8063175092045478</v>
+        <v>1.3420772302236372</v>
       </c>
       <c r="Z51" s="36">
         <f t="shared" si="1"/>
-        <v>4.204533765393637</v>
+        <v>1.2519140817172798</v>
       </c>
       <c r="AA51" s="36">
         <f t="shared" si="1"/>
-        <v>3.6071809126177197</v>
+        <v>1.1630494334449988</v>
       </c>
       <c r="AB51" s="36">
         <f t="shared" si="1"/>
-        <v>3.0154753159368139</v>
+        <v>1.0758132921309156</v>
       </c>
       <c r="AC51" s="36">
         <f t="shared" si="1"/>
-        <v>2.4311056996127305</v>
+        <v>0.99065003313773492</v>
       </c>
       <c r="AD51" s="36">
         <f t="shared" si="1"/>
-        <v>1.8564732661136352</v>
+        <v>0.90816710045955196</v>
       </c>
       <c r="AE51" s="36">
         <f t="shared" si="1"/>
-        <v>1.2950801588572667</v>
+        <v>0.82920587337136975</v>
       </c>
       <c r="AF51" s="36">
         <f t="shared" si="1"/>
-        <v>0.7521649357977237</v>
+        <v>0.7549416649150037</v>
       </c>
       <c r="AG51" s="36">
         <f t="shared" si="1"/>
-        <v>0.23573027604455052</v>
+        <v>0.68701358211499552</v>
       </c>
       <c r="AH51" s="36">
         <f t="shared" si="1"/>
-        <v>0.24190026554137167</v>
+        <v>0.62765871330000456</v>
       </c>
       <c r="AI51" s="36">
         <f t="shared" si="1"/>
-        <v>0.66216034169408877</v>
+        <v>0.57975327289045775</v>
       </c>
     </row>
   </sheetData>
